--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh\Downloads\SSP\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A9F03-61A2-459A-807C-28D28CDEF006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFB542-F3B1-4747-9E31-E11A01C25D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23862B7D-6AF9-4126-A351-97AB6D368D63}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>ipmcloud@200#</t>
   </si>
   <si>
-    <t>abchdhd</t>
-  </si>
-  <si>
     <t>wrongUsername</t>
   </si>
   <si>
@@ -81,7 +78,10 @@
     <t>sdfdsf</t>
   </si>
   <si>
-    <t>abchdhd@sfsd.dfd</t>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,13 +490,14 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FF55847D-1AA7-484B-B5A8-DA9DC27E7E7D}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{4576D2A2-1974-42CA-8FDB-8CD724C6C0E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -507,7 +508,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,18 +529,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7B179779-E61D-4438-BF9E-9949BC527325}"/>
+    <hyperlink ref="B2" r:id="rId1" display="test1@vipl.com" xr:uid="{E4028C5E-8590-4760-82AD-183CA48DD8BD}"/>
+    <hyperlink ref="C2" r:id="rId2" display="ipmcloud@200#" xr:uid="{C7133945-B6E2-4341-AC2A-25CAAE769774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -558,16 +560,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -575,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -607,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -656,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh\Downloads\SSP\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFB542-F3B1-4747-9E31-E11A01C25D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8A8D25-3F80-4EF7-AD7B-BE9B81457133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23862B7D-6AF9-4126-A351-97AB6D368D63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{23862B7D-6AF9-4126-A351-97AB6D368D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test1@vipl.com</t>
-  </si>
-  <si>
-    <t>ipmcloud@200#</t>
-  </si>
-  <si>
     <t>wrongUsername</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>ipmcloud@300#</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FF55847D-1AA7-484B-B5A8-DA9DC27E7E7D}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{4576D2A2-1974-42CA-8FDB-8CD724C6C0E4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{63C36E13-5D5B-4006-B07A-F699BC3FAE68}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{033190F6-663F-4B42-8A82-C44C43F4FE84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73145DDD-CFEB-48FE-9802-36A9B0826657}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D80E70E-1BEB-4B98-ADF1-BF7153F5A647}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,16 +560,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,19 +577,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{728E02DE-BECA-4E51-B234-8839E0D2A2E9}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{89FF2E4A-4F00-4FDE-B045-C61084156A71}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -609,16 +613,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +652,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,19 +679,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0F5A262F-1EA1-494B-8B55-AADA953DD07F}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{5C474BBF-DEF3-4282-8D4E-3F8FA3F7DB33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh\Downloads\SSP\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8A8D25-3F80-4EF7-AD7B-BE9B81457133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2F079-CFA6-4C1E-ACE9-AD67276E2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{23862B7D-6AF9-4126-A351-97AB6D368D63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{23862B7D-6AF9-4126-A351-97AB6D368D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>test3@gmail.com</t>
   </si>
   <si>
-    <t>ipmcloud@300#</t>
+    <t>ipmcloud@1#</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D80E70E-1BEB-4B98-ADF1-BF7153F5A647}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9E957-A9A3-4138-B246-6F794515E6FF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
